--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lib\demo-se\myfirstrep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableGit\myfirstrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,13 +29,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Олег</t>
-  </si>
-  <si>
     <t>ИТ-31</t>
   </si>
   <si>
     <t>+7(902)120-20-20</t>
+  </si>
+  <si>
+    <t>Лиля</t>
   </si>
 </sst>
 </file>
@@ -404,9 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -417,13 +415,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1">
         <v>1994</v>

--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PortableGit\myfirstrep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\myfirstrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>ИТ-31</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Лиля</t>
+  </si>
+  <si>
+    <t>Виктор</t>
   </si>
 </sst>
 </file>
@@ -402,9 +405,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -427,6 +432,21 @@
         <v>1994</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>7*(967)*335-61-67</f>
+        <v>2267487</v>
+      </c>
+      <c r="D2">
+        <v>1994</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
